--- a/tl/S50000.MES.BIN.xlsx
+++ b/tl/S50000.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0680D9B8-37B0-4AC4-ACE4-DBF5D0FCA240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B207D1-CC06-44D1-B624-AD493A806B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="16200" windowWidth="49560" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S50000.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="220">
   <si>
     <t>Status</t>
   </si>
@@ -62,31 +62,34 @@
     <t>5</t>
   </si>
   <si>
-    <t>...Well, it can't be helped since it's a weekday.</t>
+    <t>...Well, it's a weekday so it can't be helped.</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>Even if we say "voluntary school attendance", it's still correct for students taking exams to go to school and study.</t>
+    <t>Even if they say "voluntary attendance", it's still correct for examinees to go to school and study.</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>...Well, then, I'll waste some time until this evening and come back here again.</t>
+    <t>...Well, then, I'll waste some time until the evening and come back here again.</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>When I'm about to go home,</t>
+    <t>When I'm about to leave,</t>
+  </si>
+  <si>
+    <t>Add "just"</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>The door opens slightly and Mana-chan peeks out from inside.</t>
+    <t>The door opens slightly and Mana-chan peers out from inside.</t>
   </si>
   <si>
     <t>15</t>
@@ -98,7 +101,7 @@
     <t>Mana</t>
   </si>
   <si>
-    <t>Ah, Fujii-san...</t>
+    <t>Oh, Fujii-san...</t>
   </si>
   <si>
     <t>17</t>
@@ -107,6 +110,9 @@
     <t>She comes out of the house.</t>
   </si>
   <si>
+    <t>She comes out of the door.</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -119,33 +125,36 @@
     <t>Touya</t>
   </si>
   <si>
-    <t>Oh, there you are.</t>
+    <t>Oh, you're here.</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>If you were here, you could have come out right away.</t>
+    <t>If you're here, you could have come out right away.</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>Here I am. It's my house after all.</t>
-  </si>
-  <si>
-    <t>I'm here. It's my house after all.</t>
+    <t>I'm here. This is my house after all.</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
+    <t>And then, after giving me a sullen look, she goes back inside the house again.</t>
+  </si>
+  <si>
     <t>Then, with a huff, she goes back inside the house.</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
+    <t>Ah, sorry. I didn't mean it that way...</t>
+  </si>
+  <si>
     <t>Ah, sorry. That's not what I meant.</t>
   </si>
   <si>
@@ -164,6 +173,9 @@
     <t>35</t>
   </si>
   <si>
+    <t>Her eyes seem to be saying "You're not a fool, are you?"</t>
+  </si>
+  <si>
     <t>"Are you crazy?" she asks with her eyes.</t>
   </si>
   <si>
@@ -176,15 +188,15 @@
     <t>39</t>
   </si>
   <si>
-    <t>Alright. Come inside.</t>
-  </si>
-  <si>
     <t>Come on. Come in.</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
+    <t>Ah, excuse me for coming in...</t>
+  </si>
+  <si>
     <t>Ah, sorry to intrude...</t>
   </si>
   <si>
@@ -203,13 +215,16 @@
     <t>47</t>
   </si>
   <si>
+    <t>She says this as if teasing me while she sits down on a chair.</t>
+  </si>
+  <si>
     <t>She says this as if she's mocking me while sitting on the chair.</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>Of course I did. I'm a tutor, after all, so I'll come when asked.</t>
+    <t>Of course I did. I'm a tutor after all, so I'll come when asked.</t>
   </si>
   <si>
     <t>51</t>
@@ -221,7 +236,7 @@
     <t>53</t>
   </si>
   <si>
-    <t>...I didn't think you would actually come, so I haven't prepared a chair or anything for you today. Maybe you can sit on my bed?</t>
+    <t>...I didn't think you would actually come, so I haven't prepared a chair or anything for you today. Just sit on the bed.</t>
   </si>
   <si>
     <t>55</t>
@@ -239,13 +254,16 @@
     <t>59</t>
   </si>
   <si>
+    <t>Even moreso since she's a girl I'm not that close with...</t>
+  </si>
+  <si>
     <t>Even moreso since she's someone I'm not that familiar with...</t>
   </si>
   <si>
     <t>61</t>
   </si>
   <si>
-    <t>...So, what is it today?</t>
+    <t>...So, what's for today?</t>
   </si>
   <si>
     <t>...So, what's on the agenda for today?</t>
@@ -254,48 +272,66 @@
     <t>63</t>
   </si>
   <si>
+    <t>What do you mean...</t>
+  </si>
+  <si>
     <t>Erm... What do you mean?</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>Since I hadn't decided whether to take up this job the other day, I don't know what kind of studies Mana-chan is doing.</t>
+    <t>Since I hadn't decided whether to take up this job or not last time, I don't know what kind of studies Mana-chan is doing.</t>
   </si>
   <si>
     <t>67</t>
   </si>
   <si>
-    <t>Well, since there's no other choice, I brought some copies of the reference books and problem sets that I used when I took the exam.</t>
+    <t>Since there's no other choice, I brought some copies of reference books and problem sets I used when I took exams.</t>
   </si>
   <si>
     <t>69</t>
   </si>
   <si>
+    <t>...For now, let's try doing this problem set first.</t>
+  </si>
+  <si>
     <t>Well, let's try doing some problems first.</t>
   </si>
   <si>
     <t>71</t>
   </si>
   <si>
+    <t>In the meantime, I can take a look at her textbooks or something and find out what her current curriculum is.</t>
+  </si>
+  <si>
     <t>In the meantime, I should take a look at her textbooks or whatever to find out what she's currently studying.</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
+    <t>Immediately writing...? ...This is the worst...</t>
+  </si>
+  <si>
     <t>A test right away...? ...Ugh, the worst...</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
+    <t>What are you talking about? This is to gauge  your academic ability, Mana-chan.</t>
+  </si>
+  <si>
     <t>What are you talking about? This is just to see how well you know the material...</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
+    <t>I say something appropriate, trying to sound reasonable.</t>
+  </si>
+  <si>
     <t>I say something or the other, just trying to sound reasonable.</t>
   </si>
   <si>
@@ -308,7 +344,7 @@
     <t>81</t>
   </si>
   <si>
-    <t>Mana-chan makes a disgruntled noise, but soon gets to work on the questions.</t>
+    <t>Mana-chan makes a disgruntled noise, but soon obediently gets to work on the problem set.</t>
   </si>
   <si>
     <t>83</t>
@@ -326,18 +362,27 @@
     <t>87</t>
   </si>
   <si>
+    <t>The textbook is still completely white and pristine, with only a few creases at the beginning of the field, the basic part.</t>
+  </si>
+  <si>
     <t>The only markings in the textbook are at the beginning, where it covers the basics, and the rest of the book is still clean and pristine.</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
+    <t>From the basics...</t>
+  </si>
+  <si>
     <t>I guess we'll have to start with the basics...</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
+    <t>If we start from the basics now,</t>
+  </si>
+  <si>
     <t>Starting from the basics now...</t>
   </si>
   <si>
@@ -347,12 +392,18 @@
     <t>93</t>
   </si>
   <si>
+    <t>if Mana-chan starts saying that she's going to college, it will be a big problem.</t>
+  </si>
+  <si>
     <t>If Mana-chan starts saying she's going to college, it would be a lot of trouble.</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
+    <t>Thinking about that, I realize that Mana-chan is looking at me intently.</t>
+  </si>
+  <si>
     <t>While I was thinking that, I notice Mana-chan staring intensely at me.</t>
   </si>
   <si>
@@ -371,12 +422,18 @@
     <t>101</t>
   </si>
   <si>
-    <t>I feel like I did something wrong, so I hurriedly return to the textbook.</t>
+    <t>I feel like I did something wrong, so I quickly return the textbook to its place.</t>
+  </si>
+  <si>
+    <t>I feel like I had done something wrong, so I quickly return the textbook to its place.</t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
+    <t>I don't care how it is, just finish it quickly. You can skip the parts you don't understand.</t>
+  </si>
+  <si>
     <t>I don't care how it is, just finish it quickly. It's okay to skip parts that you don't understand.</t>
   </si>
   <si>
@@ -389,6 +446,9 @@
     <t>107</t>
   </si>
   <si>
+    <t>Saying that, Mana-chan puts down her ballpoint pen on the answer sheet with a sullen expression.</t>
+  </si>
+  <si>
     <t>Saying that, Mana-chan puts down her pen on the problem sheet with an air of resignation.</t>
   </si>
   <si>
@@ -401,15 +461,21 @@
     <t>111</t>
   </si>
   <si>
-    <t>As I'm about to say something, I notice what's written on the problem sheet.</t>
+    <t>I was about to say something when I notice the problem set.</t>
   </si>
   <si>
     <t>As I was about to say something, I notice the problem sheet.</t>
   </si>
   <si>
+    <t>Intentional reword it to be problem set</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
+    <t>The answer sheet is perfectly filled in.</t>
+  </si>
+  <si>
     <t>The answer section is filled out perfectly.</t>
   </si>
   <si>
@@ -428,48 +494,54 @@
     <t>119</t>
   </si>
   <si>
-    <t>While I'm sitting there confused, Mana-chan says to me,</t>
-  </si>
-  <si>
-    <t>Confused, Mana-chan says to me,</t>
+    <t>Confused, Mana-chan says,</t>
   </si>
   <si>
     <t>121</t>
   </si>
   <si>
-    <t>Is something the matter?</t>
-  </si>
-  <si>
-    <t>What is it?</t>
+    <t>What?</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>triumphantly.</t>
+    <t>in a triumphant tone.</t>
   </si>
   <si>
     <t>125</t>
   </si>
   <si>
+    <t>N-nevermind... By any chance, Mana-chan, do you have this problem set?</t>
+  </si>
+  <si>
     <t>Uh, no... Mana-chan, do you have this problem set?</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
+    <t>I show her the problem set I brought.</t>
+  </si>
+  <si>
     <t>I point to the problem set I brought.</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
+    <t>Of course not! It's about ability, real ability!</t>
+  </si>
+  <si>
     <t>No way! It's about skill, real skill!</t>
   </si>
   <si>
     <t>131</t>
   </si>
   <si>
+    <t>Problems like this aren't made for people to solve for others. It's the person who can't solve it that's the problem.</t>
+  </si>
+  <si>
     <t>These types of problems aren't made for people to solve for others. It's the person who can't solve it that's the problem.</t>
   </si>
   <si>
@@ -482,18 +554,12 @@
     <t>135</t>
   </si>
   <si>
-    <t>...I'm pretty sure the simple material I received from the tutoring center didn't mention anything about particularly good grades...</t>
-  </si>
-  <si>
-    <t>...I'm sure the easy materials sent from the tutoring center didn't mention anything about having good grades, right...?</t>
+    <t>I don't recall it being written in the simple materials sent from the tutoring center that she had particularly good grades...</t>
   </si>
   <si>
     <t>137</t>
   </si>
   <si>
-    <t>Well?</t>
-  </si>
-  <si>
     <t>So?</t>
   </si>
   <si>
@@ -512,57 +578,69 @@
     <t>143</t>
   </si>
   <si>
-    <t>Ah... No, there's still more.</t>
+    <t>Oh... No, there's more.</t>
+  </si>
+  <si>
+    <t>Oh... No, there's still more.</t>
   </si>
   <si>
     <t>145</t>
   </si>
   <si>
-    <t>Although my attitude was terrible, I decide to try out a random oral quiz this time.</t>
-  </si>
-  <si>
-    <t>I was trying to be cheeky, but now I'm going to try randomly asking questions orally.</t>
+    <t>Despite her bad attitude, I decide to randomly ask questions orally this time.</t>
   </si>
   <si>
     <t>147</t>
   </si>
   <si>
-    <t>But even that (despite my awful attitude) ends up being almost perfect.</t>
+    <t>But even that (despite her attitude being terrible) was almost perfect.</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
-    <t>...boring...</t>
+    <t>...Boring.</t>
   </si>
   <si>
     <t>151</t>
   </si>
   <si>
+    <t>Mana-chan lazily swings her legs.</t>
+  </si>
+  <si>
     <t>Mana-chan lets out a sigh, shuffling her feet listlessly.</t>
   </si>
   <si>
     <t>153</t>
   </si>
   <si>
+    <t>She doesn't seem mature...</t>
+  </si>
+  <si>
     <t>She's so immature...</t>
   </si>
   <si>
     <t>155</t>
   </si>
   <si>
-    <t>It seems so obvious, but it's my fault.</t>
+    <t>This looks to be her normal behavior, which makes her look bad.</t>
   </si>
   <si>
     <t>157</t>
   </si>
   <si>
+    <t>Boring... Studying is supposed to be boring.</t>
+  </si>
+  <si>
     <t>Boring... I guess that's what studying is all about.</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
+    <t>But still-...</t>
+  </si>
+  <si>
     <t>Yeah, I guess so...</t>
   </si>
   <si>
@@ -573,6 +651,9 @@
   </si>
   <si>
     <t>163</t>
+  </si>
+  <si>
+    <t>Can we stop for today?</t>
   </si>
   <si>
     <t>Can we just stop for today?</t>
@@ -1015,9 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1242,7 +1321,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>9</v>
@@ -1256,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1271,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
@@ -1288,13 +1367,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
@@ -1303,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -1320,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1332,10 +1411,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
@@ -1352,7 +1431,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1367,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>9</v>
@@ -1384,13 +1463,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -1399,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>9</v>
@@ -1416,7 +1495,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1431,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>9</v>
@@ -1448,22 +1527,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1480,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -1492,10 +1571,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>9</v>
@@ -1512,22 +1591,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>9</v>
@@ -1544,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -1559,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -1576,13 +1655,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -1591,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>9</v>
@@ -1608,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -1620,10 +1699,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>9</v>
@@ -1640,7 +1719,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1655,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>9</v>
@@ -1672,22 +1751,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>9</v>
@@ -1704,22 +1783,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>9</v>
@@ -1736,7 +1815,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>9</v>
@@ -1751,7 +1830,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>9</v>
@@ -1768,13 +1847,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -1783,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1800,7 +1879,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -1812,10 +1891,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1832,13 +1911,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
@@ -1847,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1864,13 +1943,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
@@ -1879,7 +1958,7 @@
         <v>9</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
@@ -1896,13 +1975,13 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
@@ -1911,7 +1990,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>9</v>
@@ -1928,13 +2007,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
@@ -1943,7 +2022,7 @@
         <v>9</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>9</v>
@@ -1960,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1975,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>9</v>
@@ -1992,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
@@ -2004,10 +2083,10 @@
         <v>9</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>9</v>
@@ -2024,22 +2103,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -2056,22 +2135,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>9</v>
@@ -2088,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2103,7 +2182,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>9</v>
@@ -2120,7 +2199,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
@@ -2135,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>9</v>
@@ -2152,22 +2231,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>9</v>
@@ -2184,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>9</v>
@@ -2196,10 +2275,10 @@
         <v>9</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>9</v>
@@ -2216,22 +2295,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>9</v>
@@ -2248,22 +2327,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>9</v>
@@ -2280,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -2292,10 +2371,10 @@
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -2312,13 +2391,13 @@
         <v>9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>9</v>
@@ -2327,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>9</v>
@@ -2344,7 +2423,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -2359,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>9</v>
@@ -2376,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -2391,7 +2470,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>9</v>
@@ -2408,7 +2487,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
@@ -2423,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>9</v>
@@ -2440,7 +2519,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -2452,10 +2531,10 @@
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>9</v>
@@ -2472,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -2484,10 +2563,10 @@
         <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>9</v>
@@ -2504,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -2516,13 +2595,13 @@
         <v>9</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>9</v>
@@ -2536,7 +2615,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -2548,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>9</v>
@@ -2568,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>9</v>
@@ -2580,10 +2659,10 @@
         <v>9</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>9</v>
@@ -2600,22 +2679,22 @@
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>9</v>
@@ -2632,22 +2711,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>9</v>
@@ -2664,7 +2743,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -2676,10 +2755,10 @@
         <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>9</v>
@@ -2696,22 +2775,22 @@
         <v>9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>9</v>
@@ -2728,13 +2807,13 @@
         <v>9</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>9</v>
@@ -2743,7 +2822,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>9</v>
@@ -2760,7 +2839,7 @@
         <v>9</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>9</v>
@@ -2772,10 +2851,10 @@
         <v>9</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>9</v>
@@ -2792,13 +2871,13 @@
         <v>9</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
@@ -2807,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>9</v>
@@ -2824,7 +2903,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>9</v>
@@ -2836,13 +2915,13 @@
         <v>9</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>9</v>
@@ -2856,7 +2935,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -2868,10 +2947,10 @@
         <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>9</v>
@@ -2888,7 +2967,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
@@ -2903,7 +2982,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>9</v>
@@ -2920,13 +2999,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
@@ -2935,7 +3014,7 @@
         <v>9</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>9</v>
@@ -2952,7 +3031,7 @@
         <v>9</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -2964,10 +3043,10 @@
         <v>9</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>9</v>
@@ -2984,22 +3063,22 @@
         <v>9</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>9</v>
@@ -3016,7 +3095,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>9</v>
@@ -3031,7 +3110,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>9</v>
@@ -3048,22 +3127,22 @@
         <v>9</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -3080,7 +3159,7 @@
         <v>9</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>9</v>
@@ -3092,10 +3171,10 @@
         <v>9</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>9</v>
@@ -3112,22 +3191,22 @@
         <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>9</v>
@@ -3144,22 +3223,22 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>9</v>
@@ -3176,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -3191,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>9</v>
@@ -3208,7 +3287,7 @@
         <v>9</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>9</v>
@@ -3220,10 +3299,10 @@
         <v>9</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>9</v>
@@ -3240,22 +3319,22 @@
         <v>9</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>9</v>
@@ -3272,13 +3351,13 @@
         <v>9</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>9</v>
@@ -3287,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>9</v>
@@ -3304,13 +3383,13 @@
         <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
@@ -3319,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>9</v>
@@ -3336,22 +3415,22 @@
         <v>9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>9</v>
@@ -3368,7 +3447,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -3380,10 +3459,10 @@
         <v>9</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>9</v>
@@ -3400,7 +3479,7 @@
         <v>9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
@@ -3415,7 +3494,7 @@
         <v>9</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>9</v>
@@ -3432,13 +3511,13 @@
         <v>9</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>9</v>
@@ -3447,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>9</v>
@@ -3464,7 +3543,7 @@
         <v>9</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>9</v>
@@ -3476,10 +3555,10 @@
         <v>9</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>9</v>
@@ -3496,7 +3575,7 @@
         <v>9</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -3508,10 +3587,10 @@
         <v>9</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>9</v>
@@ -3528,7 +3607,7 @@
         <v>9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>9</v>
@@ -3543,7 +3622,7 @@
         <v>9</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>9</v>
@@ -3560,22 +3639,22 @@
         <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>9</v>
@@ -3592,22 +3671,22 @@
         <v>9</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>9</v>
@@ -3624,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -3639,7 +3718,7 @@
         <v>9</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>9</v>
@@ -3656,22 +3735,22 @@
         <v>9</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>9</v>
@@ -3688,13 +3767,13 @@
         <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>9</v>
@@ -3703,7 +3782,7 @@
         <v>9</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>9</v>
@@ -3720,7 +3799,7 @@
         <v>9</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>9</v>
@@ -3735,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>9</v>
@@ -3752,7 +3831,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -3767,7 +3846,7 @@
         <v>9</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>9</v>
